--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89961.91612604092</v>
+        <v>16165776.36681272</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89961.91612604092</v>
+        <v>16165776.36681272</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6661.884687111665</v>
+        <v>731350.3129875232</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6661.884687111665</v>
+        <v>731350.3129875232</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112888180.360997</v>
+        <v>45915675.20622941</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9103.504884856096</v>
+        <v>1098365.355636473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17131.49905067808</v>
+        <v>2008169.856718308</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25218.67922181397</v>
+        <v>2917974.357800144</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33426.04515219276</v>
+        <v>3829901.725345502</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41655.73040206741</v>
+        <v>4741373.097217392</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49804.73683406982</v>
+        <v>5652844.469089282</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58041.01684442841</v>
+        <v>6564315.840961169</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66223.48255524412</v>
+        <v>7475787.212833055</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74438.0281833929</v>
+        <v>8352021.846301829</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82483.44191389084</v>
+        <v>9267339.369695188</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90498.58012204253</v>
+        <v>10177021.26341703</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98307.39668408677</v>
+        <v>11085161.69392679</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106125.6456199356</v>
+        <v>11993654.38812863</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114270.9150400783</v>
+        <v>12842139.16842216</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122916.220748125</v>
+        <v>13653437.90238837</v>
       </c>
     </row>
   </sheetData>
